--- a/Fiyat Listesi.xlsx
+++ b/Fiyat Listesi.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Fiyatlar" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="&quot;₺&quot;#,##0"/>
+    <numFmt numFmtId="164" formatCode="&quot;₺&quot;#,##0"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -269,7 +269,7 @@
   </cellStyleXfs>
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -311,10 +311,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -623,8 +623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D301"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="D104" sqref="D104"/>
+    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
+      <selection activeCell="I154" sqref="I154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -659,7 +659,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="1">
-        <v>4160</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -673,7 +673,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="1">
-        <v>4160</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -687,7 +687,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="1">
-        <v>4160</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -701,7 +701,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="1">
-        <v>4160</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -715,7 +715,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="1">
-        <v>4160</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -729,7 +729,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="1">
-        <v>4160</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -743,7 +743,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="1">
-        <v>4160</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -757,7 +757,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="1">
-        <v>4160</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
@@ -771,7 +771,7 @@
         <v>2</v>
       </c>
       <c r="D10" s="1">
-        <v>4160</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -785,7 +785,7 @@
         <v>2</v>
       </c>
       <c r="D11" s="1">
-        <v>4160</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -799,7 +799,7 @@
         <v>2</v>
       </c>
       <c r="D12" s="1">
-        <v>4160</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
@@ -813,7 +813,7 @@
         <v>2</v>
       </c>
       <c r="D13" s="1">
-        <v>4160</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
@@ -827,7 +827,7 @@
         <v>2</v>
       </c>
       <c r="D14" s="1">
-        <v>4160</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
@@ -841,7 +841,7 @@
         <v>2</v>
       </c>
       <c r="D15" s="1">
-        <v>4160</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
@@ -855,7 +855,7 @@
         <v>2</v>
       </c>
       <c r="D16" s="1">
-        <v>4160</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
@@ -869,7 +869,7 @@
         <v>2</v>
       </c>
       <c r="D17" s="1">
-        <v>4160</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
@@ -883,7 +883,7 @@
         <v>2</v>
       </c>
       <c r="D18" s="1">
-        <v>4160</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
@@ -897,7 +897,7 @@
         <v>2</v>
       </c>
       <c r="D19" s="1">
-        <v>4160</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
@@ -911,7 +911,7 @@
         <v>2</v>
       </c>
       <c r="D20" s="1">
-        <v>4160</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
@@ -925,7 +925,7 @@
         <v>2</v>
       </c>
       <c r="D21" s="1">
-        <v>4160</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
@@ -939,7 +939,7 @@
         <v>2</v>
       </c>
       <c r="D22" s="1">
-        <v>4160</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
@@ -953,7 +953,7 @@
         <v>2</v>
       </c>
       <c r="D23" s="1">
-        <v>4160</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
@@ -967,7 +967,7 @@
         <v>2</v>
       </c>
       <c r="D24" s="1">
-        <v>4160</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
@@ -981,7 +981,7 @@
         <v>2</v>
       </c>
       <c r="D25" s="1">
-        <v>4160</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
@@ -995,7 +995,7 @@
         <v>2</v>
       </c>
       <c r="D26" s="1">
-        <v>4160</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
@@ -1009,7 +1009,7 @@
         <v>2</v>
       </c>
       <c r="D27" s="1">
-        <v>4160</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
@@ -1023,7 +1023,7 @@
         <v>2</v>
       </c>
       <c r="D28" s="1">
-        <v>4160</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
@@ -1037,7 +1037,7 @@
         <v>2</v>
       </c>
       <c r="D29" s="1">
-        <v>4160</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
@@ -1051,7 +1051,7 @@
         <v>2</v>
       </c>
       <c r="D30" s="1">
-        <v>4480</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
@@ -1065,7 +1065,7 @@
         <v>2</v>
       </c>
       <c r="D31" s="1">
-        <v>4480</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
@@ -1079,7 +1079,7 @@
         <v>2</v>
       </c>
       <c r="D32" s="1">
-        <v>4480</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
@@ -1093,7 +1093,7 @@
         <v>2</v>
       </c>
       <c r="D33" s="1">
-        <v>4480</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
@@ -1107,7 +1107,7 @@
         <v>2</v>
       </c>
       <c r="D34" s="1">
-        <v>4480</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
@@ -1121,7 +1121,7 @@
         <v>2</v>
       </c>
       <c r="D35" s="1">
-        <v>4480</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
@@ -1135,7 +1135,7 @@
         <v>2</v>
       </c>
       <c r="D36" s="1">
-        <v>4480</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
@@ -1149,7 +1149,7 @@
         <v>2</v>
       </c>
       <c r="D37" s="1">
-        <v>4480</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
@@ -1163,7 +1163,7 @@
         <v>2</v>
       </c>
       <c r="D38" s="1">
-        <v>4480</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
@@ -1177,7 +1177,7 @@
         <v>2</v>
       </c>
       <c r="D39" s="1">
-        <v>4480</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
@@ -1191,7 +1191,7 @@
         <v>2</v>
       </c>
       <c r="D40" s="1">
-        <v>4480</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
@@ -1205,7 +1205,7 @@
         <v>2</v>
       </c>
       <c r="D41" s="1">
-        <v>4480</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
@@ -1219,7 +1219,7 @@
         <v>2</v>
       </c>
       <c r="D42" s="1">
-        <v>4480</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
@@ -1233,7 +1233,7 @@
         <v>2</v>
       </c>
       <c r="D43" s="1">
-        <v>4480</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
@@ -1247,7 +1247,7 @@
         <v>2</v>
       </c>
       <c r="D44" s="1">
-        <v>4480</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
@@ -1261,7 +1261,7 @@
         <v>2</v>
       </c>
       <c r="D45" s="1">
-        <v>4480</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
@@ -1275,7 +1275,7 @@
         <v>2</v>
       </c>
       <c r="D46" s="1">
-        <v>4480</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
@@ -1289,7 +1289,7 @@
         <v>2</v>
       </c>
       <c r="D47" s="1">
-        <v>4480</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
@@ -1303,7 +1303,7 @@
         <v>2</v>
       </c>
       <c r="D48" s="1">
-        <v>4480</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
@@ -1317,7 +1317,7 @@
         <v>2</v>
       </c>
       <c r="D49" s="1">
-        <v>4480</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
@@ -1331,7 +1331,7 @@
         <v>2</v>
       </c>
       <c r="D50" s="1">
-        <v>4480</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
@@ -1345,7 +1345,7 @@
         <v>2</v>
       </c>
       <c r="D51" s="1">
-        <v>4480</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
@@ -1359,7 +1359,7 @@
         <v>2</v>
       </c>
       <c r="D52" s="1">
-        <v>4480</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
@@ -1373,7 +1373,7 @@
         <v>2</v>
       </c>
       <c r="D53" s="1">
-        <v>4480</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
@@ -1387,7 +1387,7 @@
         <v>2</v>
       </c>
       <c r="D54" s="1">
-        <v>4480</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
@@ -1401,7 +1401,7 @@
         <v>2</v>
       </c>
       <c r="D55" s="1">
-        <v>4480</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
@@ -1415,7 +1415,7 @@
         <v>2</v>
       </c>
       <c r="D56" s="1">
-        <v>4480</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
@@ -1429,7 +1429,7 @@
         <v>2</v>
       </c>
       <c r="D57" s="1">
-        <v>4480</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
@@ -1443,7 +1443,7 @@
         <v>2</v>
       </c>
       <c r="D58" s="1">
-        <v>4480</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
@@ -1457,7 +1457,7 @@
         <v>2</v>
       </c>
       <c r="D59" s="1">
-        <v>4480</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
@@ -1471,7 +1471,7 @@
         <v>2</v>
       </c>
       <c r="D60" s="1">
-        <v>4480</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
@@ -1485,7 +1485,7 @@
         <v>2</v>
       </c>
       <c r="D61" s="1">
-        <v>3600</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
@@ -1499,7 +1499,7 @@
         <v>2</v>
       </c>
       <c r="D62" s="1">
-        <v>3600</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
@@ -1513,7 +1513,7 @@
         <v>2</v>
       </c>
       <c r="D63" s="1">
-        <v>3600</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
@@ -1527,7 +1527,7 @@
         <v>2</v>
       </c>
       <c r="D64" s="1">
-        <v>3600</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
@@ -1541,7 +1541,7 @@
         <v>2</v>
       </c>
       <c r="D65" s="1">
-        <v>3600</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
@@ -1555,7 +1555,7 @@
         <v>2</v>
       </c>
       <c r="D66" s="1">
-        <v>3600</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
@@ -1569,7 +1569,7 @@
         <v>2</v>
       </c>
       <c r="D67" s="1">
-        <v>3600</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
@@ -1583,7 +1583,7 @@
         <v>2</v>
       </c>
       <c r="D68" s="1">
-        <v>3600</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
@@ -1597,7 +1597,7 @@
         <v>2</v>
       </c>
       <c r="D69" s="1">
-        <v>3600</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
@@ -1611,7 +1611,7 @@
         <v>2</v>
       </c>
       <c r="D70" s="1">
-        <v>3600</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
@@ -1625,7 +1625,7 @@
         <v>2</v>
       </c>
       <c r="D71" s="1">
-        <v>3600</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
@@ -1639,7 +1639,7 @@
         <v>2</v>
       </c>
       <c r="D72" s="1">
-        <v>3600</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
@@ -1653,7 +1653,7 @@
         <v>2</v>
       </c>
       <c r="D73" s="1">
-        <v>3600</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
@@ -1667,7 +1667,7 @@
         <v>2</v>
       </c>
       <c r="D74" s="1">
-        <v>3600</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
@@ -1681,7 +1681,7 @@
         <v>2</v>
       </c>
       <c r="D75" s="1">
-        <v>3600</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
@@ -1695,7 +1695,7 @@
         <v>2</v>
       </c>
       <c r="D76" s="1">
-        <v>3600</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
@@ -1709,7 +1709,7 @@
         <v>2</v>
       </c>
       <c r="D77" s="1">
-        <v>3600</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
@@ -1723,7 +1723,7 @@
         <v>2</v>
       </c>
       <c r="D78" s="1">
-        <v>3600</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
@@ -1737,7 +1737,7 @@
         <v>2</v>
       </c>
       <c r="D79" s="1">
-        <v>3600</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
@@ -1751,7 +1751,7 @@
         <v>2</v>
       </c>
       <c r="D80" s="1">
-        <v>3600</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
@@ -1765,7 +1765,7 @@
         <v>2</v>
       </c>
       <c r="D81" s="1">
-        <v>3600</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
@@ -1779,7 +1779,7 @@
         <v>2</v>
       </c>
       <c r="D82" s="1">
-        <v>3600</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
@@ -1793,7 +1793,7 @@
         <v>2</v>
       </c>
       <c r="D83" s="1">
-        <v>3600</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
@@ -1807,7 +1807,7 @@
         <v>2</v>
       </c>
       <c r="D84" s="1">
-        <v>3600</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
@@ -1821,7 +1821,7 @@
         <v>2</v>
       </c>
       <c r="D85" s="1">
-        <v>3600</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
@@ -1835,7 +1835,7 @@
         <v>2</v>
       </c>
       <c r="D86" s="1">
-        <v>3600</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
@@ -1849,7 +1849,7 @@
         <v>2</v>
       </c>
       <c r="D87" s="1">
-        <v>3600</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.35">
@@ -1863,7 +1863,7 @@
         <v>2</v>
       </c>
       <c r="D88" s="1">
-        <v>3600</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
@@ -1877,7 +1877,7 @@
         <v>2</v>
       </c>
       <c r="D89" s="1">
-        <v>3600</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
@@ -1891,7 +1891,7 @@
         <v>2</v>
       </c>
       <c r="D90" s="1">
-        <v>3600</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.35">
@@ -1905,7 +1905,7 @@
         <v>2</v>
       </c>
       <c r="D91" s="1">
-        <v>3040</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
@@ -1919,7 +1919,7 @@
         <v>2</v>
       </c>
       <c r="D92" s="1">
-        <v>3040</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
@@ -1933,7 +1933,7 @@
         <v>2</v>
       </c>
       <c r="D93" s="1">
-        <v>3040</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
@@ -1947,7 +1947,7 @@
         <v>2</v>
       </c>
       <c r="D94" s="1">
-        <v>3040</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
@@ -1961,7 +1961,7 @@
         <v>2</v>
       </c>
       <c r="D95" s="1">
-        <v>3040</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.35">
@@ -1975,7 +1975,7 @@
         <v>2</v>
       </c>
       <c r="D96" s="1">
-        <v>3040</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.35">
@@ -1989,7 +1989,7 @@
         <v>2</v>
       </c>
       <c r="D97" s="1">
-        <v>3040</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
@@ -2003,7 +2003,7 @@
         <v>2</v>
       </c>
       <c r="D98" s="1">
-        <v>3040</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.35">
@@ -2017,7 +2017,7 @@
         <v>2</v>
       </c>
       <c r="D99" s="1">
-        <v>3040</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.35">
@@ -2031,7 +2031,7 @@
         <v>2</v>
       </c>
       <c r="D100" s="1">
-        <v>3040</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
@@ -2045,7 +2045,7 @@
         <v>2</v>
       </c>
       <c r="D101" s="1">
-        <v>3040</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.35">
@@ -2059,7 +2059,7 @@
         <v>2</v>
       </c>
       <c r="D102" s="1">
-        <v>3040</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.35">
@@ -2073,7 +2073,7 @@
         <v>2</v>
       </c>
       <c r="D103" s="1">
-        <v>3040</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.35">
@@ -2087,7 +2087,7 @@
         <v>2</v>
       </c>
       <c r="D104" s="1">
-        <v>3040</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.35">
@@ -2101,7 +2101,7 @@
         <v>2</v>
       </c>
       <c r="D105" s="1">
-        <v>3040</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.35">
@@ -2115,7 +2115,7 @@
         <v>2</v>
       </c>
       <c r="D106" s="1">
-        <v>3040</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.35">
@@ -2129,7 +2129,7 @@
         <v>2</v>
       </c>
       <c r="D107" s="1">
-        <v>3040</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.35">
@@ -2143,7 +2143,7 @@
         <v>2</v>
       </c>
       <c r="D108" s="1">
-        <v>3040</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.35">
@@ -2157,7 +2157,7 @@
         <v>2</v>
       </c>
       <c r="D109" s="1">
-        <v>3040</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.35">
@@ -2171,7 +2171,7 @@
         <v>2</v>
       </c>
       <c r="D110" s="1">
-        <v>3040</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.35">
@@ -2185,7 +2185,7 @@
         <v>2</v>
       </c>
       <c r="D111" s="1">
-        <v>3040</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.35">
@@ -2199,7 +2199,7 @@
         <v>2</v>
       </c>
       <c r="D112" s="1">
-        <v>3040</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.35">
@@ -2213,7 +2213,7 @@
         <v>2</v>
       </c>
       <c r="D113" s="1">
-        <v>3040</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.35">
@@ -2227,7 +2227,7 @@
         <v>2</v>
       </c>
       <c r="D114" s="1">
-        <v>3040</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.35">
@@ -2241,7 +2241,7 @@
         <v>2</v>
       </c>
       <c r="D115" s="1">
-        <v>3040</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.35">
@@ -2255,7 +2255,7 @@
         <v>2</v>
       </c>
       <c r="D116" s="1">
-        <v>3040</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.35">
@@ -2269,7 +2269,7 @@
         <v>2</v>
       </c>
       <c r="D117" s="1">
-        <v>3040</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.35">
@@ -2283,7 +2283,7 @@
         <v>2</v>
       </c>
       <c r="D118" s="1">
-        <v>3040</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.35">
@@ -2297,7 +2297,7 @@
         <v>2</v>
       </c>
       <c r="D119" s="1">
-        <v>3040</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.35">
@@ -2311,7 +2311,7 @@
         <v>2</v>
       </c>
       <c r="D120" s="1">
-        <v>3040</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.35">
@@ -2325,7 +2325,7 @@
         <v>2</v>
       </c>
       <c r="D121" s="1">
-        <v>3040</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
@@ -2339,7 +2339,7 @@
         <v>2</v>
       </c>
       <c r="D122" s="1">
-        <v>2080</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.35">
@@ -2353,7 +2353,7 @@
         <v>2</v>
       </c>
       <c r="D123" s="1">
-        <v>2080</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.35">
@@ -2367,7 +2367,7 @@
         <v>2</v>
       </c>
       <c r="D124" s="1">
-        <v>2080</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.35">
@@ -2381,7 +2381,7 @@
         <v>2</v>
       </c>
       <c r="D125" s="1">
-        <v>2080</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.35">
@@ -2395,7 +2395,7 @@
         <v>2</v>
       </c>
       <c r="D126" s="1">
-        <v>2080</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.35">
@@ -2409,7 +2409,7 @@
         <v>2</v>
       </c>
       <c r="D127" s="1">
-        <v>2080</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.35">
@@ -2423,7 +2423,7 @@
         <v>2</v>
       </c>
       <c r="D128" s="1">
-        <v>2080</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.35">
@@ -2437,7 +2437,7 @@
         <v>2</v>
       </c>
       <c r="D129" s="1">
-        <v>2080</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.35">
@@ -2451,7 +2451,7 @@
         <v>2</v>
       </c>
       <c r="D130" s="1">
-        <v>2080</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.35">
@@ -2465,7 +2465,7 @@
         <v>2</v>
       </c>
       <c r="D131" s="1">
-        <v>2080</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.35">
@@ -2479,7 +2479,7 @@
         <v>2</v>
       </c>
       <c r="D132" s="1">
-        <v>2080</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.35">
@@ -2493,7 +2493,7 @@
         <v>2</v>
       </c>
       <c r="D133" s="1">
-        <v>2080</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.35">
@@ -2507,7 +2507,7 @@
         <v>2</v>
       </c>
       <c r="D134" s="1">
-        <v>2080</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.35">
@@ -2521,7 +2521,7 @@
         <v>2</v>
       </c>
       <c r="D135" s="1">
-        <v>2080</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.35">
@@ -2535,7 +2535,7 @@
         <v>2</v>
       </c>
       <c r="D136" s="1">
-        <v>2080</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.35">
@@ -2549,7 +2549,7 @@
         <v>2</v>
       </c>
       <c r="D137" s="1">
-        <v>2080</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.35">
@@ -2563,7 +2563,7 @@
         <v>2</v>
       </c>
       <c r="D138" s="1">
-        <v>2080</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.35">
@@ -2577,7 +2577,7 @@
         <v>2</v>
       </c>
       <c r="D139" s="1">
-        <v>2080</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.35">
@@ -2591,7 +2591,7 @@
         <v>2</v>
       </c>
       <c r="D140" s="1">
-        <v>2080</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.35">
@@ -2605,7 +2605,7 @@
         <v>2</v>
       </c>
       <c r="D141" s="1">
-        <v>2080</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.35">
@@ -2619,7 +2619,7 @@
         <v>2</v>
       </c>
       <c r="D142" s="1">
-        <v>2080</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.35">
@@ -2633,7 +2633,7 @@
         <v>2</v>
       </c>
       <c r="D143" s="1">
-        <v>2080</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.35">
@@ -2647,7 +2647,7 @@
         <v>2</v>
       </c>
       <c r="D144" s="1">
-        <v>2080</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.35">
@@ -2661,7 +2661,7 @@
         <v>2</v>
       </c>
       <c r="D145" s="1">
-        <v>2080</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.35">
@@ -2675,7 +2675,7 @@
         <v>2</v>
       </c>
       <c r="D146" s="1">
-        <v>2080</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.35">
@@ -2689,7 +2689,7 @@
         <v>2</v>
       </c>
       <c r="D147" s="1">
-        <v>2080</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.35">
@@ -2703,7 +2703,7 @@
         <v>2</v>
       </c>
       <c r="D148" s="1">
-        <v>2080</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.35">
@@ -2717,7 +2717,7 @@
         <v>2</v>
       </c>
       <c r="D149" s="1">
-        <v>2080</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.35">
@@ -2731,7 +2731,7 @@
         <v>2</v>
       </c>
       <c r="D150" s="1">
-        <v>2080</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.35">
@@ -2745,7 +2745,7 @@
         <v>2</v>
       </c>
       <c r="D151" s="1">
-        <v>2080</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.35">
@@ -4874,15 +4874,15 @@
       <c r="B1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15" t="s">
+      <c r="D1" s="16"/>
+      <c r="E1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="15"/>
-      <c r="G1" s="16" t="s">
+      <c r="F1" s="16"/>
+      <c r="G1" s="15" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5095,7 +5095,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -5111,19 +5111,19 @@
       <c r="B1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15" t="s">
+      <c r="D1" s="16"/>
+      <c r="E1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15" t="s">
+      <c r="F1" s="16"/>
+      <c r="G1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="15"/>
-      <c r="I1" s="16" t="s">
+      <c r="H1" s="16"/>
+      <c r="I1" s="15" t="s">
         <v>11</v>
       </c>
     </row>
